--- a/Sufficient data WITH_PO/forecast_summary_B09SVZRM13_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B09SVZRM13_WITH_PO.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,65 +445,45 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Amazon Mean Forecast</t>
+          <t>Product Title</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Amazon P70 Forecast</t>
+          <t>is_holiday_week</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Amazon P80 Forecast</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Amazon P90 Forecast</t>
+          <t>Inventory Coverage</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Product Title</t>
+          <t>Stockout Risk</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>is_holiday_week</t>
+          <t>Reorder Urgency</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Sales Trend</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Inventory Coverage</t>
+          <t>Seasonality Index</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
-        <is>
-          <t>Stockout Risk</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Reorder Urgency</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Sales Trend</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Seasonality Index</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
         <is>
           <t>Lifecycle Stage</t>
         </is>
@@ -528,51 +508,39 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v/>
+        <v>1.09</v>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -597,51 +565,39 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v/>
+        <v>1.11</v>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q3" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -666,51 +622,39 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v/>
+        <v>1.05</v>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Q4" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -735,51 +679,39 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v/>
+        <v>0.88</v>
       </c>
       <c r="M5" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q5" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -804,51 +736,39 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v/>
+        <v>1.2</v>
       </c>
       <c r="M6" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q6" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -873,51 +793,39 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v/>
+        <v>1.09</v>
       </c>
       <c r="M7" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q7" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -942,51 +850,39 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v/>
+        <v>0.86</v>
       </c>
       <c r="M8" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q8" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1011,51 +907,39 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v/>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M9" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q9" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1080,51 +964,39 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v/>
+        <v>1.04</v>
       </c>
       <c r="M10" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Q10" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1149,51 +1021,39 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v/>
+        <v>1.08</v>
       </c>
       <c r="M11" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q11" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1218,51 +1078,39 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v/>
+        <v>1.03</v>
       </c>
       <c r="M12" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1287,51 +1135,39 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v/>
+        <v>1.19</v>
       </c>
       <c r="M13" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q13" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1356,51 +1192,39 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v/>
+        <v>0.97</v>
       </c>
       <c r="M14" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="Q14" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1425,51 +1249,39 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v/>
+        <v>1.16</v>
       </c>
       <c r="M15" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Q15" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1494,51 +1306,39 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v/>
+        <v>0.82</v>
       </c>
       <c r="M16" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q16" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>
@@ -1563,51 +1363,39 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Stable</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Decreasing (▼)</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v/>
+        <v>1.03</v>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Decreasing (▼)</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q17" t="inlineStr">
         <is>
           <t>Mature</t>
         </is>

--- a/Sufficient data WITH_PO/forecast_summary_B09SVZRM13_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/forecast_summary_B09SVZRM13_WITH_PO.xlsx
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.05</v>
+        <v>0.85</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.88</v>
+        <v>1.18</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.16</v>
+        <v>0.82</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
